--- a/artfynd/A 57701-2025 artfynd.xlsx
+++ b/artfynd/A 57701-2025 artfynd.xlsx
@@ -3234,7 +3234,7 @@
         <v>130909791</v>
       </c>
       <c r="B24" t="n">
-        <v>57060</v>
+        <v>57064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
